--- a/data/trans_bre/P19C02-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-5.576651574094871</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.8662156596271342</v>
+        <v>-0.866215659627112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1951012591267169</v>
@@ -649,7 +649,7 @@
         <v>-0.1115171286995229</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.01531855178862476</v>
+        <v>-0.01531855178862437</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7970512873337358</v>
+        <v>-1.502078973828082</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.223266429963916</v>
+        <v>-8.663275500517093</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.43689670892007</v>
+        <v>-13.99174997427794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.768783171321751</v>
+        <v>-6.393243254150033</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02174519598137984</v>
+        <v>-0.03627615972429066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1996935441943893</v>
+        <v>-0.1924598573161133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2548159071039612</v>
+        <v>-0.2632854553686356</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1127484333505865</v>
+        <v>-0.1072307314754441</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.42291774197588</v>
+        <v>14.2411779962961</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.763389258209818</v>
+        <v>6.963021788608971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.100032469582382</v>
+        <v>1.919561768497765</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.037370717906438</v>
+        <v>5.232014903442535</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4630456884485936</v>
+        <v>0.4422260505570069</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1790588581203942</v>
+        <v>0.190181000655144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04222368950592238</v>
+        <v>0.04172470769346773</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.09389286627512672</v>
+        <v>0.0965624316820331</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.918715745209974</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.849246117531989</v>
+        <v>2.849246117532001</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01520716038614714</v>
@@ -749,7 +749,7 @@
         <v>0.1716168210594015</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.05109409470926694</v>
+        <v>0.05109409470926714</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.065573782967752</v>
+        <v>-7.525311979855509</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.518839014967226</v>
+        <v>-8.905710845817472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4308191368343215</v>
+        <v>-0.8274480910118373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.112558133350171</v>
+        <v>-3.815229146054632</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1674519278608719</v>
+        <v>-0.1736284008796599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1895885239194124</v>
+        <v>-0.201781713605416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0112163787264013</v>
+        <v>-0.01884927113654001</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06938637662177309</v>
+        <v>-0.06615902895969202</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.327311873961733</v>
+        <v>8.937545942988598</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.514772664767431</v>
+        <v>7.344523480573109</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.76562434923494</v>
+        <v>14.89866378914069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.843633767805665</v>
+        <v>8.595330377984563</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2346560239821163</v>
+        <v>0.2624823047558252</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2045197011801843</v>
+        <v>0.1970243397923057</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4402674872613724</v>
+        <v>0.4185241216014906</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1709861981335455</v>
+        <v>0.161551665424019</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.158113808230764</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.606256280934703</v>
+        <v>7.606256280934709</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1287010007883166</v>
@@ -849,7 +849,7 @@
         <v>0.1953397004619843</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1559902525802531</v>
+        <v>0.1559902525802532</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.146152245447599</v>
+        <v>-4.898035529977386</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.266506010026479</v>
+        <v>-6.214353326413851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.348974945330883</v>
+        <v>-2.994600592664544</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01265316737898862</v>
+        <v>-0.1446693217063914</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1596227238269009</v>
+        <v>-0.1449109937348488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1907841288069328</v>
+        <v>-0.1851934734357371</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08527402475611021</v>
+        <v>-0.08851495600298293</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0002747545479299769</v>
+        <v>-0.003156538343289747</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.15123361926056</v>
+        <v>12.84713307022523</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.710480368838116</v>
+        <v>8.908990252535657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.28842098331728</v>
+        <v>16.33305441345168</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.84154974902766</v>
+        <v>14.94774835296115</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4360116648967545</v>
+        <v>0.4491808135806541</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3043133550291042</v>
+        <v>0.3165359767800904</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5281668054885633</v>
+        <v>0.5754226247882713</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3224565090105347</v>
+        <v>0.3338878224307298</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01937035841641392</v>
+        <v>0.480390651881589</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.407144375621147</v>
+        <v>6.258710658270508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.576708020890718</v>
+        <v>3.854645182502688</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.437067609415156</v>
+        <v>3.406882147663207</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.001454169970198296</v>
+        <v>0.01677912088748315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2433154320583358</v>
+        <v>0.2423954919061896</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1135712789383835</v>
+        <v>0.1216607171295592</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07900199074391424</v>
+        <v>0.0780198666923481</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.254643899822405</v>
+        <v>9.815960813757819</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.29422239110567</v>
+        <v>15.7766019795998</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.57693611754082</v>
+        <v>13.46894606581323</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.53724595255081</v>
+        <v>12.22632255874355</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4277460409184122</v>
+        <v>0.4454751918211442</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6828480556260026</v>
+        <v>0.6963062562550125</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4949631160828251</v>
+        <v>0.4840545140785804</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3297917469766635</v>
+        <v>0.3223741142186012</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.184147673364078</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.624888286955676</v>
+        <v>5.624888286955665</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3440260665055612</v>
@@ -1049,7 +1049,7 @@
         <v>0.03710663976683289</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1510338525084601</v>
+        <v>0.1510338525084597</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.016300439880668</v>
+        <v>0.08160349058022399</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.437649277690991</v>
+        <v>0.9916300082973222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.897511454813952</v>
+        <v>-4.631214295258962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.105743358413791</v>
+        <v>0.3193459302161036</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.04914421396765663</v>
+        <v>0.006455959688571395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06644910603655139</v>
+        <v>0.04578746893423016</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1441688716625844</v>
+        <v>-0.1337778624654217</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.001365813740776987</v>
+        <v>0.008701228112159592</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.795323903285</v>
+        <v>12.68337457381333</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.94417690338011</v>
+        <v>11.91064829779035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.74511210933225</v>
+        <v>7.268408947924336</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.8772870297033</v>
+        <v>11.16843238069161</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8543727329935555</v>
+        <v>0.9833723088652504</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.730822839244749</v>
+        <v>0.7257197757451171</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2846141252226078</v>
+        <v>0.255969837219741</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3259544641436938</v>
+        <v>0.3397087281996553</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.6730705242423585</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-12.98064252825666</v>
+        <v>-12.98064252825665</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.2332137803757508</v>
@@ -1149,7 +1149,7 @@
         <v>0.02155358654348256</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2290343264869433</v>
+        <v>-0.2290343264869432</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-14.28688530444414</v>
+        <v>-13.74903311648164</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.494386325617709</v>
+        <v>-7.897477751385675</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-6.157680514193459</v>
+        <v>-6.309826453769094</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-22.65378594629689</v>
+        <v>-22.63244397222365</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3814064515145787</v>
+        <v>-0.3722988312465287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2638351619436904</v>
+        <v>-0.250036138709017</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1624263004732666</v>
+        <v>-0.170052626230091</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.349094067114413</v>
+        <v>-0.3493395245251634</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.4426715332540095</v>
+        <v>-0.4280999610890107</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.345212541532551</v>
+        <v>5.09476747359504</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.506139682768839</v>
+        <v>6.934435755906711</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.956582035532085</v>
+        <v>-1.896458352028539</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.01034321252025761</v>
+        <v>-0.01639576260518243</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2525931195044487</v>
+        <v>0.2380140518664819</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2883080821279976</v>
+        <v>0.2652922329001104</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.02469143307965115</v>
+        <v>-0.04130610616423631</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.003055296464896</v>
+        <v>-2.116560401486828</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.902797436677235</v>
+        <v>-0.7728652662419473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1314136673319184</v>
+        <v>-0.2838125579399006</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8242134340751452</v>
+        <v>-0.7618191034295024</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.06658055173427839</v>
+        <v>-0.06979232313183278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.02867483909679699</v>
+        <v>-0.02499058328808305</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.003593769209027941</v>
+        <v>-0.007554463955251199</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.01656277564313857</v>
+        <v>-0.01622832143014623</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.925906395348778</v>
+        <v>3.187164965655181</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.179432734713275</v>
+        <v>3.741388818878309</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.192734707725688</v>
+        <v>4.966969157705658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.93202383367146</v>
+        <v>4.072594443565998</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.108953776538975</v>
+        <v>0.1166928197901245</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1483526345647972</v>
+        <v>0.1308820497296456</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1547322551265603</v>
+        <v>0.1472480333998527</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.08610194304913917</v>
+        <v>0.08919396306128227</v>
       </c>
     </row>
     <row r="25">
